--- a/Pin Assignments.xlsx
+++ b/Pin Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/kc2423_ic_ac_uk/Documents/School 2023-27/Year 2/Term 1/Gizmo/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCFCA7B1-792E-4211-9E3C-606B01CBDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{DCFCA7B1-792E-4211-9E3C-606B01CBDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BABC75D-5BF1-4066-A68C-918577011ABB}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10960" xr2:uid="{889BC987-2B48-4E0B-A55E-0F986A9FE8D7}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{889BC987-2B48-4E0B-A55E-0F986A9FE8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="89">
   <si>
     <t>Pin Number (GPIO)</t>
   </si>
@@ -267,6 +267,42 @@
   </si>
   <si>
     <t>ADC input (SVN). Supports analog input and is input-only.</t>
+  </si>
+  <si>
+    <t>GPIO)</t>
+  </si>
+  <si>
+    <t>Maze Corner sensor 2</t>
+  </si>
+  <si>
+    <t>Maze Corner sensor 1</t>
+  </si>
+  <si>
+    <t>Maze corner sensor 3</t>
+  </si>
+  <si>
+    <t>Maze corner sensor 4</t>
+  </si>
+  <si>
+    <t>MPU SDA</t>
+  </si>
+  <si>
+    <t>MPU SCL</t>
+  </si>
+  <si>
+    <t>Maze DS</t>
+  </si>
+  <si>
+    <t>Maze Latch</t>
+  </si>
+  <si>
+    <t>Maze CLK</t>
+  </si>
+  <si>
+    <t>ServoX</t>
+  </si>
+  <si>
+    <t>ServoY</t>
   </si>
 </sst>
 </file>
@@ -310,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -327,11 +363,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -366,6 +420,25 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -380,17 +453,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{638B7748-74A8-4DBA-A8E7-7C082AD50F6A}" name="Table1" displayName="Table1" ref="A1:E40" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E40" xr:uid="{638B7748-74A8-4DBA-A8E7-7C082AD50F6A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E40">
-    <sortCondition ref="A1:A40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{638B7748-74A8-4DBA-A8E7-7C082AD50F6A}" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E41" xr:uid="{638B7748-74A8-4DBA-A8E7-7C082AD50F6A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+    <sortCondition ref="A1:A41"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{49E91FD3-7B0E-47F2-8AA4-477AFEB32D3E}" name="Pin Number (GPIO)" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{2D1BCA88-C42A-4C54-B8FD-CD49C09BB505}" name="Pin Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9BE08C8A-14EF-444B-A6AE-1528C5BA7830}" name="IO Capability" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3DCDCF73-8C50-417A-BD11-67A4C4D495A6}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{49E91FD3-7B0E-47F2-8AA4-477AFEB32D3E}" name="Pin Number (GPIO)" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2D1BCA88-C42A-4C54-B8FD-CD49C09BB505}" name="Pin Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9BE08C8A-14EF-444B-A6AE-1528C5BA7830}" name="IO Capability" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3DCDCF73-8C50-417A-BD11-67A4C4D495A6}" name="Notes" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{D12C60BD-ADD8-4DC2-B4AC-6F96840EE62C}" name="Used"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D27FA875-1BC5-43D9-971C-9A4166F42E43}" name="Table13" displayName="Table13" ref="G1:K41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="G1:K41" xr:uid="{D27FA875-1BC5-43D9-971C-9A4166F42E43}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:K41">
+    <sortCondition ref="G1:G41"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1534A4E5-2C74-4D1A-92B0-58F7674B6732}" name="Pin Number (GPIO)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B2E91DAF-79EF-4ABF-B847-08852B17F9AC}" name="Pin Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{54FA7BD2-5809-4E7E-AC01-B6DA3DC43A4F}" name="IO Capability" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C37FA5FE-0C51-41A7-99A5-D710B0632CCC}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{5A7B01EC-9BC7-4A07-B088-F27FC8B78C45}" name="Used"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -713,22 +803,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CF7CAD-D576-4759-A7B6-00B5D538797A}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,101 +839,200 @@
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="E3" s="2"/>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>16</v>
@@ -846,13 +1040,25 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
@@ -860,13 +1066,25 @@
       <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G9" s="2">
+        <v>7</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -874,13 +1092,25 @@
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>16</v>
@@ -888,13 +1118,25 @@
       <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G11" s="2">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
@@ -902,221 +1144,414 @@
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G12" s="2">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="G15" s="2">
+        <v>13</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="2">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="G19" s="2">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="G20" s="2">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="G21" s="2">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="G22" s="2">
+        <v>20</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="2">
+        <v>21</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="2">
+        <v>22</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="2">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="G26" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>5</v>
@@ -1124,41 +1559,77 @@
       <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G27" s="2">
+        <v>25</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="2">
+        <v>26</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="G29" s="2">
+        <v>27</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>5</v>
@@ -1166,13 +1637,28 @@
       <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="2">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1180,13 +1666,28 @@
       <c r="D31" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>5</v>
@@ -1194,28 +1695,54 @@
       <c r="D32" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2">
+        <v>31</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>5</v>
@@ -1226,30 +1753,54 @@
       <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G34" s="2">
+        <v>32</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="G35" s="2">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>16</v>
@@ -1258,46 +1809,88 @@
         <v>58</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="2">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="G37" s="2">
+        <v>35</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="G38" s="2">
+        <v>36</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>5</v>
@@ -1305,31 +1898,89 @@
       <c r="D39" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="2">
+        <v>37</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="2">
+        <v>38</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="3" t="s">
+      <c r="C41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="G41" s="5">
+        <v>39</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>